--- a/Unity/Assets/Config/Excel/unit.xlsx
+++ b/Unity/Assets/Config/Excel/unit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -99,6 +99,26 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +138,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,14 +148,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -235,24 +248,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,13 +569,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -583,7 +604,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -607,7 +630,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -630,108 +655,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1">
         <v>1001</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>178</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1">
         <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>278</v>
-      </c>
-      <c r="I6" s="1">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="I7" s="1">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>178</v>
+      </c>
+      <c r="I8" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>1004</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>278</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <v>78</v>
       </c>
     </row>
